--- a/config_2.2/fish_3d_yutu_random_3.xlsx
+++ b/config_2.2/fish_3d_yutu_random_3.xlsx
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G17" sqref="G17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1796,10 +1796,10 @@
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="20">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H17" s="20">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1820,10 +1820,10 @@
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="20">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H18" s="20">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1844,10 +1844,10 @@
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="20">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H19" s="20">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1868,10 +1868,10 @@
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="20">
-        <v>1611619200</v>
+        <v>1612224000</v>
       </c>
       <c r="H20" s="20">
-        <v>1612195199</v>
+        <v>1612799999</v>
       </c>
     </row>
   </sheetData>
